--- a/biology/Zoologie/Étang_de_La_Capelle/Étang_de_La_Capelle.xlsx
+++ b/biology/Zoologie/Étang_de_La_Capelle/Étang_de_La_Capelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tang_de_La_Capelle</t>
+          <t>Étang_de_La_Capelle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’étang de La Capelle est un impluvium de 42 hectares situé sur le territoire de la commune de La Capelle-et-Masmolène. Il est remarquable par sa biodiversité. En effet, il constitue une très rare étendue d’eau dans les garrigues gardoises, ce qui en fait un lieu recherché par de nombreux animaux.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tang_de_La_Capelle</t>
+          <t>Étang_de_La_Capelle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,85 @@
           <t>Faune</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La faune de l’étang de La Capelle a été étudiée par de nombreux naturalistes depuis 1970[1].
-Oiseaux
-Les études de la faune avienne ont permis d’identifier 155 espèces d’oiseaux, parmi lesquelles 34 sont très rares et 3 sont classées prioritaires (butor étoilé, fuligule nyroca, râle des genêts).
-Mammifères
-Plusieurs espèces de chauve-souris.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La faune de l’étang de La Capelle a été étudiée par de nombreux naturalistes depuis 1970.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Étang_de_La_Capelle</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tang_de_La_Capelle</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Oiseaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les études de la faune avienne ont permis d’identifier 155 espèces d’oiseaux, parmi lesquelles 34 sont très rares et 3 sont classées prioritaires (butor étoilé, fuligule nyroca, râle des genêts).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Étang_de_La_Capelle</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tang_de_La_Capelle</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs espèces de chauve-souris.
 </t>
         </is>
       </c>
